--- a/excelTemplate/ShipmentReceiptTemplate.xlsx
+++ b/excelTemplate/ShipmentReceiptTemplate.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -407,6 +407,302 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>lofo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>telex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>faf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_low%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMENDMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_ocean%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_deposit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_lofo%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_bl%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_telex%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_faf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_low%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_cod%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amendment%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_others%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bank%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMURRAGE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>demurrage</t>
     </r>
     <r>
@@ -418,297 +714,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lofo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>telex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>faf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_low%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMENDMENT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amendment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>others</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_ocean%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_deposit%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_lofo%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_bl%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_telex%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_faf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_low%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_cod%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amendment%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_others%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.check%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bank%&gt;</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -863,16 +868,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -908,13 +904,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,7 +1007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,7 +1042,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,7 +1260,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1279,7 +1284,7 @@
     <col min="17" max="17" width="20" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
     <col min="19" max="25" width="11.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.125" style="20" customWidth="1"/>
+    <col min="26" max="26" width="17.125" style="17" customWidth="1"/>
     <col min="27" max="27" width="11.625" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.375" style="1" customWidth="1"/>
     <col min="29" max="29" width="24" style="1" customWidth="1"/>
@@ -1294,83 +1299,83 @@
       <c r="J1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="8" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
     </row>
     <row r="2" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="16" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -1397,13 +1402,13 @@
       <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1416,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>15</v>
@@ -1442,127 +1447,127 @@
       <c r="AL2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AM2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AE3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AF3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AG3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AH3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AI3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AK3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AL3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AM3" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM3" s="18" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/ShipmentReceiptTemplate.xlsx
+++ b/excelTemplate/ShipmentReceiptTemplate.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AA$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -120,6 +120,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Currency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receipt_currency%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>&lt;%=rs1.receipt_</t>
     </r>
@@ -132,6 +140,591 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bank%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bank_detail%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>receipt_party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>receipt_bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCEAN FREIGHT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTAINER DEPOSIT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIVABLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>receivable_tasac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vessel_voyage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_tasac%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ocean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lofo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>telex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>faf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_low%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMENDMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_ocean%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_deposit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_lofo%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_bl%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_telex%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_faf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_low%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_cod%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amendment%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_others%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bank%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMURRAGE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demurrage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receipt_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>no</t>
     </r>
     <r>
@@ -139,6 +732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,49 +741,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Currency</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receipt_currency%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receipt_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.bank%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.bank_detail%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>&lt;%=rs1.</t>
     </r>
@@ -202,518 +753,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>receipt_party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>receipt_bl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OCEAN FREIGHT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTAINER DEPOSIT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECEIVABLE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>receivable_tasac</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vessel_voyage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>payable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_tasac%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ocean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deposit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lofo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>telex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>faf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_low%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMENDMENT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amendment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>others</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_ocean%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_deposit%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_lofo%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_bl%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_telex%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_faf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_low%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_cod%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amendment%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_others%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.check%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bank%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEMURRAGE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demurrage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
+      <t>invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no%&gt;</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -738,6 +789,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -746,18 +798,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -849,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +975,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,56 +1312,55 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
-    <col min="19" max="25" width="11.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.125" style="17" customWidth="1"/>
-    <col min="27" max="27" width="11.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="24" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.375" style="1" customWidth="1"/>
-    <col min="33" max="39" width="11.125" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.125" style="3"/>
+    <col min="3" max="4" width="21.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
+    <col min="20" max="26" width="11.125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.125" style="17" customWidth="1"/>
+    <col min="28" max="28" width="11.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="24" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.375" style="1" customWidth="1"/>
+    <col min="34" max="40" width="11.125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J1" s="5" t="s">
+    <row r="1" spans="1:40" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="23"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
@@ -1315,11 +1372,11 @@
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
       <c r="Y1" s="23"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="20" t="s">
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
       <c r="AD1" s="21"/>
       <c r="AE1" s="21"/>
@@ -1331,8 +1388,9 @@
       <c r="AK1" s="21"/>
       <c r="AL1" s="21"/>
       <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1342,239 +1400,245 @@
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AE2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="I3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AG3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AH3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AI3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AL3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AM3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AN3" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z2"/>
+  <autoFilter ref="A2:AA2"/>
   <mergeCells count="2">
-    <mergeCell ref="AA1:AM1"/>
-    <mergeCell ref="M1:Y1"/>
+    <mergeCell ref="AB1:AN1"/>
+    <mergeCell ref="N1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/excelTemplate/ShipmentReceiptTemplate.xlsx
+++ b/excelTemplate/ShipmentReceiptTemplate.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AA$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AB$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -444,6 +444,315 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>telex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>faf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_low%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMENDMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_ocean%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_deposit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_lofo%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_bl%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_telex%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_faf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_low%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_cod%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amendment%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_others%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bank%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMURRAGE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demurrage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receipt_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>amf</t>
     </r>
     <r>
@@ -460,312 +769,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>telex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>faf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_low%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMENDMENT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amendment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>others</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_ocean%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_deposit%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_lofo%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_bl%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_telex%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_faf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_low%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_cod%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amendment%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_others%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.check%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bank%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEMURRAGE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demurrage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice No.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receipt_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_no%&gt;</t>
-    </r>
+    <t>ADJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_adj%&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +973,9 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,7 +988,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,7 +1323,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
@@ -1341,56 +1352,57 @@
     <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" customWidth="1"/>
     <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
-    <col min="20" max="26" width="11.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.125" style="17" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="24" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.375" style="1" customWidth="1"/>
-    <col min="34" max="40" width="11.125" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.125" style="3"/>
+    <col min="20" max="27" width="11.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.125" style="17" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="24" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.375" style="1" customWidth="1"/>
+    <col min="35" max="41" width="11.125" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="18"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="20" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
     </row>
-    <row r="2" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>29</v>
@@ -1452,78 +1464,81 @@
         <v>17</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="AF2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>30</v>
@@ -1532,13 +1547,13 @@
         <v>31</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>33</v>
@@ -1562,7 +1577,7 @@
         <v>44</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>45</v>
@@ -1570,75 +1585,78 @@
       <c r="S3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AB3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AE3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AH3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AI3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AL3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AM3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AN3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AO3" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA2"/>
+  <autoFilter ref="A2:AB2"/>
   <mergeCells count="2">
-    <mergeCell ref="AB1:AN1"/>
-    <mergeCell ref="N1:Z1"/>
+    <mergeCell ref="AC1:AO1"/>
+    <mergeCell ref="N1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/excelTemplate/ShipmentReceiptTemplate.xlsx
+++ b/excelTemplate/ShipmentReceiptTemplate.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AC$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -276,6 +276,488 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>payable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_tasac%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ocean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deposit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lofo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>faf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_low%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMENDMENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_ocean%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_deposit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_lofo%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_bl%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_telex%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_faf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_low%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_cod%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amendment%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_others%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bank%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMURRAGE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demurrage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receipt_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_adj%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlc%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_telex%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>vessel_voyage</t>
     </r>
     <r>
@@ -293,46 +775,18 @@
   </si>
   <si>
     <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>payable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_tasac%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ocean</t>
+      <t>&lt;%=rs1.payable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlc</t>
     </r>
     <r>
       <rPr>
@@ -345,435 +799,6 @@
       </rPr>
       <t>%&gt;</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deposit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lofo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>telex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>faf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_low%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMENDMENT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amendment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>others</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_ocean%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_deposit%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_lofo%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_bl%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_telex%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_faf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_low%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_cod%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amendment%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_others%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.check%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bank%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEMURRAGE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demurrage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice No.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receipt_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_no%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_adj%&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,12 +883,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,12 +947,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,9 +959,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,18 +974,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,7 +992,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1327,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
@@ -1345,318 +1349,344 @@
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.25" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
-    <col min="20" max="27" width="11.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.125" style="17" customWidth="1"/>
-    <col min="29" max="29" width="11.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="24" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.375" style="1" customWidth="1"/>
-    <col min="35" max="41" width="11.125" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.125" style="3"/>
+    <col min="13" max="13" width="10" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.375" style="1" customWidth="1"/>
+    <col min="21" max="29" width="11.125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="24" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.375" style="1" customWidth="1"/>
+    <col min="36" max="43" width="11.125" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K1" s="5" t="s">
+    <row r="1" spans="1:43" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="23" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="21" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
     </row>
-    <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AB2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AO2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="AD3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AH3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AI3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AK3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AL3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AM3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AN3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AO3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB2"/>
-  <mergeCells count="2">
-    <mergeCell ref="AC1:AO1"/>
-    <mergeCell ref="N1:AA1"/>
+  <autoFilter ref="A2:AC2"/>
+  <mergeCells count="3">
+    <mergeCell ref="AD1:AQ1"/>
+    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.35416666666666702" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>

--- a/excelTemplate/ShipmentReceiptTemplate.xlsx
+++ b/excelTemplate/ShipmentReceiptTemplate.xlsx
@@ -536,269 +536,270 @@
     <t>&lt;%=rs1.payable_bl%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.payable_telex%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_faf%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_low%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_cod%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_amendment%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_others%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.check%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bank%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMURRAGE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demurrage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receipt_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_no%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_adj%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlc%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_telex%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vessel_voyage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.payable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.receivable_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=rs1.payable_amf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_telex%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_faf%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_low%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_cod%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_amendment%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_others%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.check%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bank%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.payable_demurrage%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEMURRAGE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demurrage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice No.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receipt_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_no%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_adj%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RLC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.receivable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rlc%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.receivable_telex%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vessel_voyage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.payable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rlc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1430,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>29</v>
@@ -1484,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>18</v>
@@ -1499,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="13" t="s">
         <v>49</v>
@@ -1517,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>15</v>
@@ -1541,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>22</v>
@@ -1558,10 +1559,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>30</v>
@@ -1570,13 +1571,13 @@
         <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>33</v>
@@ -1591,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>40</v>
@@ -1603,7 +1604,7 @@
         <v>43</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>44</v>
@@ -1612,13 +1613,13 @@
         <v>45</v>
       </c>
       <c r="U3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="W3" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X3" s="12" t="s">
         <v>46</v>
@@ -1630,7 +1631,7 @@
         <v>48</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB3" s="12" t="s">
         <v>50</v>
@@ -1648,7 +1649,7 @@
         <v>53</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH3" s="12" t="s">
         <v>54</v>
@@ -1656,29 +1657,29 @@
       <c r="AI3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/ShipmentReceiptTemplate.xlsx
+++ b/excelTemplate/ShipmentReceiptTemplate.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AC$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">票据统计汇总表!$A$2:$AD$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">[1]COSCO!$C$3:$H$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>收据开具清单统计汇总表</t>
   </si>
@@ -800,6 +800,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.payable_amf%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.receivable_lpf%&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1328,7 +1336,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
@@ -1358,18 +1366,18 @@
     <col min="18" max="18" width="12.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="1" customWidth="1"/>
     <col min="20" max="20" width="17.375" style="1" customWidth="1"/>
-    <col min="21" max="29" width="11.125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="24" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="1" customWidth="1"/>
-    <col min="35" max="35" width="17.375" style="1" customWidth="1"/>
-    <col min="36" max="43" width="11.125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.125" style="3"/>
+    <col min="21" max="30" width="11.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="24" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="20" style="1" customWidth="1"/>
+    <col min="36" max="36" width="17.375" style="1" customWidth="1"/>
+    <col min="37" max="44" width="11.125" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1403,10 +1411,10 @@
       <c r="AA1" s="19"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="19"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="17"/>
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
       <c r="AH1" s="17"/>
@@ -1419,8 +1427,9 @@
       <c r="AO1" s="17"/>
       <c r="AP1" s="17"/>
       <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
     </row>
-    <row r="2" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1505,53 +1514,56 @@
       <c r="AB2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1636,57 +1648,60 @@
       <c r="AB3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AP3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AC2"/>
+  <autoFilter ref="A2:AD2"/>
   <mergeCells count="3">
-    <mergeCell ref="AD1:AQ1"/>
-    <mergeCell ref="O1:AC1"/>
+    <mergeCell ref="AE1:AR1"/>
+    <mergeCell ref="O1:AD1"/>
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
